--- a/Fake_Target_List.xlsx
+++ b/Fake_Target_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1nbvw\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8283E38F-67BA-4040-9726-B17E692EC506}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12452C0E-EABD-4B88-828A-7B7F824EF3AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="2310" windowWidth="19005" windowHeight="16425" xr2:uid="{C67568B7-82FD-4D9A-B89C-95D3E2470C65}"/>
+    <workbookView xWindow="27015" yWindow="3885" windowWidth="19005" windowHeight="16935" xr2:uid="{C67568B7-82FD-4D9A-B89C-95D3E2470C65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Company_Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Comments</t>
   </si>
@@ -42,12 +39,6 @@
     <t>Sauron Gmbh</t>
   </si>
   <si>
-    <t>Evilness_Emission_Level</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
     <t>Evil Incoporated</t>
   </si>
   <si>
@@ -79,6 +70,42 @@
   </si>
   <si>
     <t>Known for its controversial intensive honey farming practices</t>
+  </si>
+  <si>
+    <t>Evilness_Level</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh AG</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Company_Names</t>
   </si>
 </sst>
 </file>
@@ -429,106 +456,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678AB8F9-A4D8-4DD8-B855-7F728A7ABDCE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C9">
         <v>9</v>
       </c>
     </row>
